--- a/examples/sources/data/unsolved/to_schedule/2019-04-01.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-01.xlsx
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>1</v>
